--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3641.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3641.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.437309449506089</v>
+        <v>0.7877166271209717</v>
       </c>
       <c r="B1">
-        <v>1.748874023312671</v>
+        <v>1.809979915618896</v>
       </c>
       <c r="C1">
-        <v>1.802441173543662</v>
+        <v>2.545440196990967</v>
       </c>
       <c r="D1">
-        <v>2.102625004902926</v>
+        <v>1.528391599655151</v>
       </c>
       <c r="E1">
-        <v>2.722794552540694</v>
+        <v>0.8194904923439026</v>
       </c>
     </row>
   </sheetData>
